--- a/get_resolving/ch_info.xlsx
+++ b/get_resolving/ch_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27525" windowHeight="13140"/>
+    <workbookView windowWidth="20250" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,492 +14,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>TV5569</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/756</t>
+    <t>http://x.x.x.x:2082/xxxxxxxx</t>
   </si>
   <si>
     <t>TV5570</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/931</t>
-  </si>
-  <si>
     <t>TV5571</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/928</t>
-  </si>
-  <si>
     <t>TV5572</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/927</t>
-  </si>
-  <si>
     <t>TV5573</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/778</t>
-  </si>
-  <si>
     <t>TV5574</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/781</t>
-  </si>
-  <si>
     <t>TV5575</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/780</t>
-  </si>
-  <si>
     <t>TV5576</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/779</t>
-  </si>
-  <si>
     <t>TV5577</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/755</t>
-  </si>
-  <si>
     <t>TV5578</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/923</t>
-  </si>
-  <si>
     <t>TV5579</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/920</t>
-  </si>
-  <si>
     <t>TV5580</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/906</t>
-  </si>
-  <si>
     <t>TV5581</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/901</t>
-  </si>
-  <si>
     <t>TV5582</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/894</t>
-  </si>
-  <si>
     <t>TV5583</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/893</t>
-  </si>
-  <si>
     <t>TV5584</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/892</t>
-  </si>
-  <si>
     <t>TV5585</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/891</t>
-  </si>
-  <si>
     <t>TV5586</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/889</t>
-  </si>
-  <si>
     <t>TV5587</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/885</t>
-  </si>
-  <si>
     <t>TV5588</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/884</t>
-  </si>
-  <si>
     <t>TV5589</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/883</t>
-  </si>
-  <si>
     <t>TV5590</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/882</t>
-  </si>
-  <si>
     <t>TV5591</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/880</t>
-  </si>
-  <si>
     <t>TV5592</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/879</t>
-  </si>
-  <si>
     <t>TV5593</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/876</t>
-  </si>
-  <si>
     <t>TV5594</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/875</t>
-  </si>
-  <si>
     <t>TV5595</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/874</t>
-  </si>
-  <si>
     <t>TV5596</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/873</t>
-  </si>
-  <si>
     <t>TV5597</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/872</t>
-  </si>
-  <si>
     <t>TV5598</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/871</t>
-  </si>
-  <si>
     <t>TV5599</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/866</t>
-  </si>
-  <si>
     <t>TV5600</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/877</t>
-  </si>
-  <si>
     <t>TV5601</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/772</t>
-  </si>
-  <si>
     <t>TV5602</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/890</t>
-  </si>
-  <si>
     <t>TV5603</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/777</t>
-  </si>
-  <si>
     <t>TV5604</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/849</t>
-  </si>
-  <si>
     <t>TV5605</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/761</t>
-  </si>
-  <si>
     <t>TV5606</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/839</t>
-  </si>
-  <si>
     <t>TV5607</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/766</t>
-  </si>
-  <si>
     <t>TV5608</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/765</t>
-  </si>
-  <si>
     <t>TV5609</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/768</t>
-  </si>
-  <si>
     <t>TV5610</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/836</t>
-  </si>
-  <si>
     <t>TV5611</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/835</t>
-  </si>
-  <si>
     <t>TV5612</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/758</t>
-  </si>
-  <si>
     <t>TV5613</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/735</t>
-  </si>
-  <si>
     <t>TV5614</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/764</t>
-  </si>
-  <si>
     <t>TV5615</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/752</t>
-  </si>
-  <si>
     <t>TV5616</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/767</t>
-  </si>
-  <si>
     <t>TV5617</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/824</t>
-  </si>
-  <si>
     <t>TV5618</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/823</t>
-  </si>
-  <si>
     <t>TV5619</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/822</t>
-  </si>
-  <si>
     <t>TV5620</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/745</t>
-  </si>
-  <si>
     <t>TV5621</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/736</t>
-  </si>
-  <si>
     <t>TV5622</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/762</t>
-  </si>
-  <si>
     <t>TV5623</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/769</t>
-  </si>
-  <si>
     <t>TV5624</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/763</t>
-  </si>
-  <si>
     <t>TV5625</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/747</t>
-  </si>
-  <si>
     <t>TV5626</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/819</t>
-  </si>
-  <si>
     <t>TV5627</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/818</t>
-  </si>
-  <si>
     <t>TV5628</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/760</t>
-  </si>
-  <si>
     <t>TV5629</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/774</t>
-  </si>
-  <si>
     <t>TV5630</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/740</t>
-  </si>
-  <si>
     <t>TV5631</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/773</t>
-  </si>
-  <si>
     <t>TV5632</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/742</t>
-  </si>
-  <si>
     <t>TV5633</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/775</t>
-  </si>
-  <si>
     <t>TV5634</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/738</t>
-  </si>
-  <si>
     <t>TV5635</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/797</t>
-  </si>
-  <si>
     <t>TV5636</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/741</t>
-  </si>
-  <si>
     <t>TV5637</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/796</t>
-  </si>
-  <si>
     <t>TV5638</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/795</t>
-  </si>
-  <si>
     <t>TV5639</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/794</t>
-  </si>
-  <si>
     <t>TV5640</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/770</t>
-  </si>
-  <si>
     <t>TV5641</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/753</t>
-  </si>
-  <si>
     <t>TV5642</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/739</t>
-  </si>
-  <si>
     <t>TV5643</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/750</t>
-  </si>
-  <si>
     <t>TV5644</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/792</t>
-  </si>
-  <si>
     <t>TV5645</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/791</t>
-  </si>
-  <si>
     <t>TV5646</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/790</t>
-  </si>
-  <si>
     <t>TV5647</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/784</t>
-  </si>
-  <si>
     <t>TV5648</t>
   </si>
   <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/783</t>
-  </si>
-  <si>
     <t>TV5649</t>
-  </si>
-  <si>
-    <t>http://xcstream.stblauncher.com:2082/bejin_brasil/Gszroe7rxw/782</t>
   </si>
 </sst>
 </file>
@@ -507,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -535,10 +295,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,106 +403,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,9 +418,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,12 +447,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -705,13 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,145 +603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,11 +635,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,56 +726,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,130 +755,130 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,10 +1243,13 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="57" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1501,639 +1264,639 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/get_resolving/ch_info.xlsx
+++ b/get_resolving/ch_info.xlsx
@@ -14,252 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="2">
   <si>
-    <t>TV5569</t>
+    <t>TVXXXX</t>
   </si>
   <si>
     <t>http://x.x.x.x:2082/xxxxxxxx</t>
-  </si>
-  <si>
-    <t>TV5570</t>
-  </si>
-  <si>
-    <t>TV5571</t>
-  </si>
-  <si>
-    <t>TV5572</t>
-  </si>
-  <si>
-    <t>TV5573</t>
-  </si>
-  <si>
-    <t>TV5574</t>
-  </si>
-  <si>
-    <t>TV5575</t>
-  </si>
-  <si>
-    <t>TV5576</t>
-  </si>
-  <si>
-    <t>TV5577</t>
-  </si>
-  <si>
-    <t>TV5578</t>
-  </si>
-  <si>
-    <t>TV5579</t>
-  </si>
-  <si>
-    <t>TV5580</t>
-  </si>
-  <si>
-    <t>TV5581</t>
-  </si>
-  <si>
-    <t>TV5582</t>
-  </si>
-  <si>
-    <t>TV5583</t>
-  </si>
-  <si>
-    <t>TV5584</t>
-  </si>
-  <si>
-    <t>TV5585</t>
-  </si>
-  <si>
-    <t>TV5586</t>
-  </si>
-  <si>
-    <t>TV5587</t>
-  </si>
-  <si>
-    <t>TV5588</t>
-  </si>
-  <si>
-    <t>TV5589</t>
-  </si>
-  <si>
-    <t>TV5590</t>
-  </si>
-  <si>
-    <t>TV5591</t>
-  </si>
-  <si>
-    <t>TV5592</t>
-  </si>
-  <si>
-    <t>TV5593</t>
-  </si>
-  <si>
-    <t>TV5594</t>
-  </si>
-  <si>
-    <t>TV5595</t>
-  </si>
-  <si>
-    <t>TV5596</t>
-  </si>
-  <si>
-    <t>TV5597</t>
-  </si>
-  <si>
-    <t>TV5598</t>
-  </si>
-  <si>
-    <t>TV5599</t>
-  </si>
-  <si>
-    <t>TV5600</t>
-  </si>
-  <si>
-    <t>TV5601</t>
-  </si>
-  <si>
-    <t>TV5602</t>
-  </si>
-  <si>
-    <t>TV5603</t>
-  </si>
-  <si>
-    <t>TV5604</t>
-  </si>
-  <si>
-    <t>TV5605</t>
-  </si>
-  <si>
-    <t>TV5606</t>
-  </si>
-  <si>
-    <t>TV5607</t>
-  </si>
-  <si>
-    <t>TV5608</t>
-  </si>
-  <si>
-    <t>TV5609</t>
-  </si>
-  <si>
-    <t>TV5610</t>
-  </si>
-  <si>
-    <t>TV5611</t>
-  </si>
-  <si>
-    <t>TV5612</t>
-  </si>
-  <si>
-    <t>TV5613</t>
-  </si>
-  <si>
-    <t>TV5614</t>
-  </si>
-  <si>
-    <t>TV5615</t>
-  </si>
-  <si>
-    <t>TV5616</t>
-  </si>
-  <si>
-    <t>TV5617</t>
-  </si>
-  <si>
-    <t>TV5618</t>
-  </si>
-  <si>
-    <t>TV5619</t>
-  </si>
-  <si>
-    <t>TV5620</t>
-  </si>
-  <si>
-    <t>TV5621</t>
-  </si>
-  <si>
-    <t>TV5622</t>
-  </si>
-  <si>
-    <t>TV5623</t>
-  </si>
-  <si>
-    <t>TV5624</t>
-  </si>
-  <si>
-    <t>TV5625</t>
-  </si>
-  <si>
-    <t>TV5626</t>
-  </si>
-  <si>
-    <t>TV5627</t>
-  </si>
-  <si>
-    <t>TV5628</t>
-  </si>
-  <si>
-    <t>TV5629</t>
-  </si>
-  <si>
-    <t>TV5630</t>
-  </si>
-  <si>
-    <t>TV5631</t>
-  </si>
-  <si>
-    <t>TV5632</t>
-  </si>
-  <si>
-    <t>TV5633</t>
-  </si>
-  <si>
-    <t>TV5634</t>
-  </si>
-  <si>
-    <t>TV5635</t>
-  </si>
-  <si>
-    <t>TV5636</t>
-  </si>
-  <si>
-    <t>TV5637</t>
-  </si>
-  <si>
-    <t>TV5638</t>
-  </si>
-  <si>
-    <t>TV5639</t>
-  </si>
-  <si>
-    <t>TV5640</t>
-  </si>
-  <si>
-    <t>TV5641</t>
-  </si>
-  <si>
-    <t>TV5642</t>
-  </si>
-  <si>
-    <t>TV5643</t>
-  </si>
-  <si>
-    <t>TV5644</t>
-  </si>
-  <si>
-    <t>TV5645</t>
-  </si>
-  <si>
-    <t>TV5646</t>
-  </si>
-  <si>
-    <t>TV5647</t>
-  </si>
-  <si>
-    <t>TV5648</t>
-  </si>
-  <si>
-    <t>TV5649</t>
   </si>
 </sst>
 </file>
@@ -267,9 +27,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -289,74 +49,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +72,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,6 +149,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,13 +187,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +201,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,79 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,85 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +392,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,17 +417,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +436,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,15 +456,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,145 +500,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1261,7 +1021,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1269,7 +1029,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1277,7 +1037,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1285,7 +1045,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1293,7 +1053,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1301,7 +1061,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1309,7 +1069,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1317,7 +1077,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1325,7 +1085,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1333,7 +1093,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1341,7 +1101,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -1349,7 +1109,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1357,7 +1117,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -1365,7 +1125,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -1373,7 +1133,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1381,7 +1141,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -1389,7 +1149,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1397,7 +1157,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -1405,7 +1165,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -1413,7 +1173,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1421,7 +1181,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1429,7 +1189,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1437,7 +1197,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -1445,7 +1205,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1453,7 +1213,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1461,7 +1221,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -1469,7 +1229,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1477,7 +1237,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -1485,7 +1245,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -1493,7 +1253,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -1501,7 +1261,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1509,7 +1269,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -1517,7 +1277,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1525,7 +1285,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -1533,7 +1293,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1541,7 +1301,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -1549,7 +1309,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1557,7 +1317,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -1565,7 +1325,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1573,7 +1333,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
@@ -1581,7 +1341,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -1589,7 +1349,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1597,7 +1357,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -1605,7 +1365,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -1613,7 +1373,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -1621,7 +1381,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -1629,7 +1389,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
@@ -1637,7 +1397,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1645,7 +1405,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -1653,7 +1413,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1</v>
@@ -1661,7 +1421,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1669,7 +1429,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1</v>
@@ -1677,7 +1437,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
@@ -1685,7 +1445,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
@@ -1693,7 +1453,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -1701,7 +1461,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -1709,7 +1469,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
@@ -1717,7 +1477,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
@@ -1725,7 +1485,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -1733,7 +1493,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
@@ -1741,7 +1501,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -1749,7 +1509,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -1757,7 +1517,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
@@ -1765,7 +1525,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -1773,7 +1533,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
@@ -1781,7 +1541,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -1789,7 +1549,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
@@ -1797,7 +1557,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
@@ -1805,7 +1565,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
@@ -1813,7 +1573,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -1821,7 +1581,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -1829,7 +1589,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
@@ -1837,7 +1597,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
@@ -1845,7 +1605,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -1853,7 +1613,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
@@ -1861,7 +1621,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
@@ -1869,7 +1629,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -1877,7 +1637,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1</v>
@@ -1885,7 +1645,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1</v>
@@ -1893,7 +1653,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
